--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t/>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>KD03.jpg</t>
+  </si>
+  <si>
+    <t>KD04</t>
+  </si>
+  <si>
+    <t>NXB_Đại_Học_Quốc_Gia</t>
+  </si>
+  <si>
+    <t>P.Việt</t>
+  </si>
+  <si>
+    <t>Trường Làng</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -143,14 +158,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.1953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.02734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.71875" customWidth="true" bestFit="true"/>
@@ -276,6 +291,35 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>KD06</t>
+  </si>
+  <si>
+    <t>NXB_Lao_Động</t>
+  </si>
+  <si>
+    <t>Chính_Trị</t>
+  </si>
+  <si>
+    <t>Tiến Về Miền Nam</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -320,6 +332,35 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -71,7 +71,7 @@
     <t>Nguyễn Du</t>
   </si>
   <si>
-    <t>Tiểu_Thuyết</t>
+    <t>Truyện</t>
   </si>
   <si>
     <t>Kiều Nguyệt Nga</t>
@@ -101,25 +101,22 @@
     <t>NXB_Đại_Học_Quốc_Gia</t>
   </si>
   <si>
-    <t>P.Việt</t>
-  </si>
-  <si>
-    <t>Trường Làng</t>
+    <t>J.K.R</t>
+  </si>
+  <si>
+    <t>Chính_Trị</t>
+  </si>
+  <si>
+    <t>Harry Porter và Chính Trị Việt Nam</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>KD06</t>
-  </si>
-  <si>
-    <t>NXB_Lao_Động</t>
-  </si>
-  <si>
-    <t>Chính_Trị</t>
-  </si>
-  <si>
-    <t>Tiến Về Miền Nam</t>
+    <t>KD05</t>
+  </si>
+  <si>
+    <t>asaad</t>
   </si>
 </sst>
 </file>
@@ -180,7 +177,7 @@
     <col min="2" max="2" width="23.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.1953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.02734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="28.71875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.98828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="15.39453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.3359375" customWidth="true" bestFit="true"/>
@@ -294,7 +291,7 @@
         <v>2005.0</v>
       </c>
       <c r="G4" t="n">
-        <v>245.0</v>
+        <v>246.0</v>
       </c>
       <c r="H4" t="n">
         <v>450000.0</v>
@@ -314,51 +311,51 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>2020.0</v>
       </c>
       <c r="G5" t="n">
-        <v>125.0</v>
+        <v>34.0</v>
       </c>
       <c r="H5" t="n">
-        <v>25000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2346.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -291,7 +291,7 @@
         <v>2005.0</v>
       </c>
       <c r="G4" t="n">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="H4" t="n">
         <v>450000.0</v>
@@ -320,7 +320,7 @@
         <v>2020.0</v>
       </c>
       <c r="G5" t="n">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
         <v>200000.0</v>
@@ -349,7 +349,7 @@
         <v>2346.0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" t="n">
         <v>25000.0</v>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t/>
   </si>
@@ -47,76 +47,136 @@
     <t>KD01</t>
   </si>
   <si>
+    <t>NXB_Đại_Học_Quốc_Gia</t>
+  </si>
+  <si>
+    <t>J.K.R</t>
+  </si>
+  <si>
+    <t>Văn_Học_Nghệ_Thuật</t>
+  </si>
+  <si>
+    <t>7 Thói Quen Hiệu Quả</t>
+  </si>
+  <si>
+    <t>KD01.jpg</t>
+  </si>
+  <si>
+    <t>KD02</t>
+  </si>
+  <si>
+    <t>NXB_Trẻ</t>
+  </si>
+  <si>
+    <t>H.Trương</t>
+  </si>
+  <si>
+    <t>Tôn_Giáo&amp;Tâm_Lý</t>
+  </si>
+  <si>
+    <t>Chúng Ta Đã Sai</t>
+  </si>
+  <si>
+    <t>KD02.jpg</t>
+  </si>
+  <si>
+    <t>KD03</t>
+  </si>
+  <si>
+    <t>P.Việt</t>
+  </si>
+  <si>
+    <t>Cho tôi 1 vé Về tuổi thơ</t>
+  </si>
+  <si>
+    <t>KD03.jpg</t>
+  </si>
+  <si>
+    <t>KD04</t>
+  </si>
+  <si>
+    <t>Đời Ngắn Đừng Ngủ Dài</t>
+  </si>
+  <si>
+    <t>KD04.jpg</t>
+  </si>
+  <si>
+    <t>KD05</t>
+  </si>
+  <si>
+    <t>NhieuTG</t>
+  </si>
+  <si>
+    <t>Hạt Giống Tâm Hồn</t>
+  </si>
+  <si>
+    <t>KD05.jpg</t>
+  </si>
+  <si>
+    <t>KD06</t>
+  </si>
+  <si>
+    <t>Chính_Trị</t>
+  </si>
+  <si>
+    <t>Đắc Nhân Tâm</t>
+  </si>
+  <si>
+    <t>KD06.jpg</t>
+  </si>
+  <si>
+    <t>KD07</t>
+  </si>
+  <si>
+    <t>Nguyễn Du</t>
+  </si>
+  <si>
+    <t>Truyện</t>
+  </si>
+  <si>
+    <t>Truyện Kiều</t>
+  </si>
+  <si>
+    <t>KD07.jpg</t>
+  </si>
+  <si>
+    <t>KD08</t>
+  </si>
+  <si>
+    <t>NXB_Tổng_Hợp_HCM</t>
+  </si>
+  <si>
+    <t>D.N.Nam</t>
+  </si>
+  <si>
+    <t>Thành Phố Ngày Ta Yêu</t>
+  </si>
+  <si>
+    <t>KD08.jpg</t>
+  </si>
+  <si>
+    <t>KD09</t>
+  </si>
+  <si>
     <t>NXB_Hội_Nhà_Văn</t>
   </si>
   <si>
-    <t>H.Trương</t>
-  </si>
-  <si>
-    <t>Tôn_Giáo&amp;Tâm_Lý</t>
-  </si>
-  <si>
-    <t>Nhớ Em Cô Gái Ngày Hôm QUa</t>
-  </si>
-  <si>
-    <t>KD01.jpg</t>
-  </si>
-  <si>
-    <t>KD02</t>
-  </si>
-  <si>
-    <t>NXB_Tổng_Hợp_HCM</t>
-  </si>
-  <si>
-    <t>Nguyễn Du</t>
-  </si>
-  <si>
-    <t>Truyện</t>
-  </si>
-  <si>
-    <t>Kiều Nguyệt Nga</t>
-  </si>
-  <si>
-    <t>KD02.jpg</t>
-  </si>
-  <si>
-    <t>KD03</t>
-  </si>
-  <si>
-    <t>D.N.Nam</t>
-  </si>
-  <si>
-    <t>Thiếu_Nhi</t>
-  </si>
-  <si>
-    <t>Chiều Hôm</t>
-  </si>
-  <si>
-    <t>KD03.jpg</t>
-  </si>
-  <si>
-    <t>KD04</t>
-  </si>
-  <si>
-    <t>NXB_Đại_Học_Quốc_Gia</t>
-  </si>
-  <si>
-    <t>J.K.R</t>
-  </si>
-  <si>
-    <t>Chính_Trị</t>
-  </si>
-  <si>
-    <t>Harry Porter và Chính Trị Việt Nam</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>KD05</t>
-  </si>
-  <si>
-    <t>asaad</t>
+    <t>Thương Nhau Để Đó</t>
+  </si>
+  <si>
+    <t>KD09.jpg</t>
+  </si>
+  <si>
+    <t>KD10</t>
+  </si>
+  <si>
+    <t>Pháp _Luật</t>
+  </si>
+  <si>
+    <t>Luật Bảo Vệ Môi Trường</t>
+  </si>
+  <si>
+    <t>KD10.jpg</t>
   </si>
 </sst>
 </file>
@@ -167,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,8 +236,8 @@
     <col min="1" max="1" width="9.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.02734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.98828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="15.39453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.3359375" customWidth="true" bestFit="true"/>
@@ -230,13 +290,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>125000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -259,13 +319,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>1980.0</v>
+        <v>2018.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5000.0</v>
+        <v>50.0</v>
       </c>
       <c r="H3" t="n">
-        <v>95000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -276,86 +336,231 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>245.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>450000.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>200000.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>2346.0</v>
+        <v>2006.0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="H6" t="n">
-        <v>25000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>85000.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -351,7 +351,7 @@
         <v>2016.0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="H4" t="n">
         <v>75000.0</v>

--- a/ManageBookStore/report/SachDB.xlsx
+++ b/ManageBookStore/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t/>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>KD10.jpg</t>
+  </si>
+  <si>
+    <t>KD11</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -227,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -293,7 +302,7 @@
         <v>2016.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H2" t="n">
         <v>11000.0</v>
@@ -561,6 +570,35 @@
       </c>
       <c r="I11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25666.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
